--- a/data-files/import-data.xlsx
+++ b/data-files/import-data.xlsx
@@ -1,26 +1,374 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saint\Desktop\ProgrammingClubYPEC\copy\template-wpf\data-files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC4326C6-75D9-4D26-9F95-693A8D19850A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="2745" yWindow="-12900" windowWidth="21600" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="109">
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>surname</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>midname</t>
+  </si>
+  <si>
+    <t>bithday</t>
+  </si>
+  <si>
+    <t>code role</t>
+  </si>
+  <si>
+    <t>user role</t>
+  </si>
+  <si>
+    <t>friendship</t>
+  </si>
+  <si>
+    <t>login sender</t>
+  </si>
+  <si>
+    <t>login recirver</t>
+  </si>
+  <si>
+    <t>user contact</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>user confidential data</t>
+  </si>
+  <si>
+    <t>passport series</t>
+  </si>
+  <si>
+    <t>passport number</t>
+  </si>
+  <si>
+    <t>policy number</t>
+  </si>
+  <si>
+    <t>policy type</t>
+  </si>
+  <si>
+    <t>company code</t>
+  </si>
+  <si>
+    <t>gdunkerly0</t>
+  </si>
+  <si>
+    <t>IGU2Q1qifXuf</t>
+  </si>
+  <si>
+    <t>jrestill1</t>
+  </si>
+  <si>
+    <t>sqIBkp</t>
+  </si>
+  <si>
+    <t>sjansik2</t>
+  </si>
+  <si>
+    <t>cDS8tAke</t>
+  </si>
+  <si>
+    <t>awhetton3</t>
+  </si>
+  <si>
+    <t>TKJnqj1PqT</t>
+  </si>
+  <si>
+    <t>itemperley4</t>
+  </si>
+  <si>
+    <t>gt0FCfi</t>
+  </si>
+  <si>
+    <t>slisle5</t>
+  </si>
+  <si>
+    <t>VBNKKHrdx</t>
+  </si>
+  <si>
+    <t>ipetracek6</t>
+  </si>
+  <si>
+    <t>lsQzhOfw3</t>
+  </si>
+  <si>
+    <t>tbonnar7</t>
+  </si>
+  <si>
+    <t>UKkYVs</t>
+  </si>
+  <si>
+    <t>acaurah8</t>
+  </si>
+  <si>
+    <t>z7c39bK</t>
+  </si>
+  <si>
+    <t>rgoodwins9</t>
+  </si>
+  <si>
+    <t>LFDOoiJWa</t>
+  </si>
+  <si>
+    <t>lflannigana</t>
+  </si>
+  <si>
+    <t>WhmVUqH</t>
+  </si>
+  <si>
+    <t>tcreddonb</t>
+  </si>
+  <si>
+    <t>3H2lFqg1TD</t>
+  </si>
+  <si>
+    <t>thunnawillc</t>
+  </si>
+  <si>
+    <t>qvKPlGtAV</t>
+  </si>
+  <si>
+    <t>dwyvilld</t>
+  </si>
+  <si>
+    <t>25OI9n</t>
+  </si>
+  <si>
+    <t>Glyn</t>
+  </si>
+  <si>
+    <t>Dunkerly</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>Jeanne</t>
+  </si>
+  <si>
+    <t>Restill</t>
+  </si>
+  <si>
+    <t>Sibyl</t>
+  </si>
+  <si>
+    <t>Jansik</t>
+  </si>
+  <si>
+    <t>Analise</t>
+  </si>
+  <si>
+    <t>Whetton</t>
+  </si>
+  <si>
+    <t>Ingra</t>
+  </si>
+  <si>
+    <t>Temperley</t>
+  </si>
+  <si>
+    <t>Sarine</t>
+  </si>
+  <si>
+    <t>Lisle</t>
+  </si>
+  <si>
+    <t>Ignacius</t>
+  </si>
+  <si>
+    <t>Petracek</t>
+  </si>
+  <si>
+    <t>Talbert</t>
+  </si>
+  <si>
+    <t>Bonnar</t>
+  </si>
+  <si>
+    <t>Alexi</t>
+  </si>
+  <si>
+    <t>Caurah</t>
+  </si>
+  <si>
+    <t>Roi</t>
+  </si>
+  <si>
+    <t>Goodwins</t>
+  </si>
+  <si>
+    <t>Lanna</t>
+  </si>
+  <si>
+    <t>Flannigan</t>
+  </si>
+  <si>
+    <t>Thorn</t>
+  </si>
+  <si>
+    <t>Creddon</t>
+  </si>
+  <si>
+    <t>Tracy</t>
+  </si>
+  <si>
+    <t>Hunnawill</t>
+  </si>
+  <si>
+    <t>Delora</t>
+  </si>
+  <si>
+    <t>Wyvill</t>
+  </si>
+  <si>
+    <t>moderator</t>
+  </si>
+  <si>
+    <t>oms</t>
+  </si>
+  <si>
+    <t>dms</t>
+  </si>
+  <si>
+    <t>+86 (106) 695-3205</t>
+  </si>
+  <si>
+    <t>gdunkerly0@ted.com</t>
+  </si>
+  <si>
+    <t>+234 (336) 298-8675</t>
+  </si>
+  <si>
+    <t>jrestill1@feedburner.com</t>
+  </si>
+  <si>
+    <t>+62 (203) 110-2483</t>
+  </si>
+  <si>
+    <t>sjansik2@dedecms.com</t>
+  </si>
+  <si>
+    <t>+51 (566) 226-0569</t>
+  </si>
+  <si>
+    <t>awhetton3@msn.com</t>
+  </si>
+  <si>
+    <t>+46 (719) 769-5445</t>
+  </si>
+  <si>
+    <t>itemperley4@goo.ne.jp</t>
+  </si>
+  <si>
+    <t>+256 (976) 102-2075</t>
+  </si>
+  <si>
+    <t>slisle5@mayoclinic.com</t>
+  </si>
+  <si>
+    <t>+998 (712) 864-4246</t>
+  </si>
+  <si>
+    <t>ipetracek6@chronoengine.com</t>
+  </si>
+  <si>
+    <t>+86 (135) 626-5960</t>
+  </si>
+  <si>
+    <t>tbonnar7@bizjournals.com</t>
+  </si>
+  <si>
+    <t>+234 (400) 963-5392</t>
+  </si>
+  <si>
+    <t>acaurah8@dagondesign.com</t>
+  </si>
+  <si>
+    <t>+52 (671) 148-2835</t>
+  </si>
+  <si>
+    <t>rgoodwins9@zimbio.com</t>
+  </si>
+  <si>
+    <t>+57 (611) 136-1977</t>
+  </si>
+  <si>
+    <t>lflannigana@hexun.com</t>
+  </si>
+  <si>
+    <t>+7 (718) 627-3155</t>
+  </si>
+  <si>
+    <t>tcreddonb@yandex.ru</t>
+  </si>
+  <si>
+    <t>+385 (951) 836-4242</t>
+  </si>
+  <si>
+    <t>thunnawillc@bloglovin.com</t>
+  </si>
+  <si>
+    <t>+46 (763) 475-5404</t>
+  </si>
+  <si>
+    <t>dwyvilld@unc.edu</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy\ h:mm;@"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +376,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +431,53 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="3">
+    <cellStyle name="Нейтральный" xfId="2" builtinId="28"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +754,1215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="D1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="K1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="4"/>
+      <c r="N1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="4"/>
+      <c r="Q1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="U1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="S2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="X2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="3">
+        <v>17279.178993055557</v>
+      </c>
+      <c r="I3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M3" s="6">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="1">
+        <v>9091</v>
+      </c>
+      <c r="W3" s="1">
+        <v>129038</v>
+      </c>
+      <c r="X3" s="1">
+        <v>93766273</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="3">
+        <v>30475.581574074073</v>
+      </c>
+      <c r="I4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M4" s="6">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="V4" s="1">
+        <v>4446</v>
+      </c>
+      <c r="W4" s="1">
+        <v>615819</v>
+      </c>
+      <c r="X4" s="1">
+        <v>92610882</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="3">
+        <v>36367.272407407407</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2</v>
+      </c>
+      <c r="M5" s="6">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="V5" s="1">
+        <v>4525</v>
+      </c>
+      <c r="W5" s="1">
+        <v>970451</v>
+      </c>
+      <c r="X5" s="1">
+        <v>69326881</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="3">
+        <v>31356.057569444445</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="M6" s="6">
+        <v>4</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="U6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="1">
+        <v>4273</v>
+      </c>
+      <c r="W6" s="1">
+        <v>568590</v>
+      </c>
+      <c r="X6" s="1">
+        <v>19655901</v>
+      </c>
+      <c r="Y6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H7" s="3">
+        <v>19960.801886574074</v>
+      </c>
+      <c r="I7" s="1">
+        <v>2</v>
+      </c>
+      <c r="M7" s="6">
+        <v>5</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="1">
+        <v>8846</v>
+      </c>
+      <c r="W7" s="1">
+        <v>364469</v>
+      </c>
+      <c r="X7" s="1">
+        <v>79494920</v>
+      </c>
+      <c r="Y7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="3">
+        <v>20487.31753472222</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="M8" s="6">
+        <v>6</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" s="1">
+        <v>8593</v>
+      </c>
+      <c r="W8" s="1">
+        <v>425286</v>
+      </c>
+      <c r="X8" s="1">
+        <v>18681906</v>
+      </c>
+      <c r="Y8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="3">
+        <v>29421.101597222223</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="M9" s="6">
+        <v>7</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="V9" s="1">
+        <v>7259</v>
+      </c>
+      <c r="W9" s="1">
+        <v>742978</v>
+      </c>
+      <c r="X9" s="1">
+        <v>4936948</v>
+      </c>
+      <c r="Y9" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="3">
+        <v>17355.576724537037</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="M10" s="6">
+        <v>8</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2796</v>
+      </c>
+      <c r="W10" s="1">
+        <v>776164</v>
+      </c>
+      <c r="X10" s="1">
+        <v>25625555</v>
+      </c>
+      <c r="Y10" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H11" s="3">
+        <v>26896.245428240742</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="6">
+        <v>9</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="V11" s="1">
+        <v>6221</v>
+      </c>
+      <c r="W11" s="1">
+        <v>854506</v>
+      </c>
+      <c r="X11" s="1">
+        <v>87971120</v>
+      </c>
+      <c r="Y11" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H12" s="3">
+        <v>19146.528067129628</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="6">
+        <v>10</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V12" s="1">
+        <v>2487</v>
+      </c>
+      <c r="W12" s="1">
+        <v>888610</v>
+      </c>
+      <c r="X12" s="1">
+        <v>23339661</v>
+      </c>
+      <c r="Y12" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H13" s="3">
+        <v>28278.152974537035</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>11</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3596</v>
+      </c>
+      <c r="W13" s="1">
+        <v>609928</v>
+      </c>
+      <c r="X13" s="1">
+        <v>24833900</v>
+      </c>
+      <c r="Y13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H14" s="3">
+        <v>26219.202256944445</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2</v>
+      </c>
+      <c r="M14" s="6">
+        <v>12</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="V14" s="1">
+        <v>8249</v>
+      </c>
+      <c r="W14" s="1">
+        <v>496591</v>
+      </c>
+      <c r="X14" s="1">
+        <v>27787565</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H15" s="3">
+        <v>23932.776296296295</v>
+      </c>
+      <c r="I15" s="1">
+        <v>2</v>
+      </c>
+      <c r="M15" s="6">
+        <v>13</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="V15" s="1">
+        <v>6516</v>
+      </c>
+      <c r="W15" s="1">
+        <v>163876</v>
+      </c>
+      <c r="X15" s="1">
+        <v>92825057</v>
+      </c>
+      <c r="Y15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="3">
+        <v>35392.85460648148</v>
+      </c>
+      <c r="I16" s="1">
+        <v>2</v>
+      </c>
+      <c r="M16" s="6">
+        <v>14</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="V16" s="1">
+        <v>8679</v>
+      </c>
+      <c r="W16" s="1">
+        <v>752088</v>
+      </c>
+      <c r="X16" s="1">
+        <v>95518385</v>
+      </c>
+      <c r="Y16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M17" s="6">
+        <v>15</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="6">
+        <v>16</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M19" s="6">
+        <v>17</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M20" s="6">
+        <v>18</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M21" s="6">
+        <v>19</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M22" s="6">
+        <v>20</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M23" s="6">
+        <v>21</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M24" s="6">
+        <v>22</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M25" s="6">
+        <v>23</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M26" s="6">
+        <v>24</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M27" s="6">
+        <v>25</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M28" s="6">
+        <v>26</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M29" s="6">
+        <v>27</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M30" s="6">
+        <v>28</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M31" s="6">
+        <v>29</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M32" s="6">
+        <v>30</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15" x14ac:dyDescent="0.25">
+      <c r="M33" s="6">
+        <v>31</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:I1"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="Q1:S1"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>